--- a/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6075FF2D-43A9-4270-B0EA-3845CADF9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A7373E-58BD-4275-84DA-6C71DD74B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97F08849-634E-4183-92A1-AE797E5D555E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{924FAFF8-93BD-4CD2-BE70-B2B6D4359775}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="233">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -185,10 +185,10 @@
     <t>40,37%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>31,39%</t>
@@ -203,7 +203,7 @@
     <t>29,9%</t>
   </si>
   <si>
-    <t>70,45%</t>
+    <t>73,64%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -224,7 +224,7 @@
     <t>29,73%</t>
   </si>
   <si>
-    <t>71,32%</t>
+    <t>74,65%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -314,10 +314,10 @@
     <t>61,44%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>27,51%</t>
@@ -335,10 +335,10 @@
     <t>14,97%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>47,29%</t>
@@ -356,10 +356,10 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,10 +368,10 @@
     <t>53,02%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>64,22%</t>
@@ -386,16 +386,16 @@
     <t>59,25%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>69,88%</t>
+    <t>71,28%</t>
   </si>
   <si>
     <t>8,4%</t>
@@ -407,7 +407,7 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>41,38%</t>
+    <t>40,42%</t>
   </si>
   <si>
     <t>10,32%</t>
@@ -419,7 +419,7 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>25,68%</t>
+    <t>25,36%</t>
   </si>
   <si>
     <t>17,06%</t>
@@ -431,19 +431,19 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>44,76%</t>
+    <t>43,24%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>72,89%</t>
+    <t>73,07%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>39,93%</t>
+    <t>40,07%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -536,28 +536,28 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>29,08%</t>
+    <t>28,3%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>19,21%</t>
+    <t>17,36%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>16,32%</t>
+    <t>12,6%</t>
   </si>
   <si>
     <t>50,99%</t>
@@ -572,19 +572,19 @@
     <t>57,52%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>16,51%</t>
@@ -596,139 +596,142 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>52,52%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1C3AF0-F69B-4CC5-BB68-18B534690B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECC76E7-EDE3-4951-AF47-9EFE5AF98FA4}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3609,10 +3612,10 @@
         <v>185</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -3621,13 +3624,13 @@
         <v>6565</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3698,13 @@
         <v>2428</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -3710,13 +3713,13 @@
         <v>8876</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M52" s="7">
         <v>21</v>
@@ -3728,10 +3731,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3749,13 @@
         <v>6506</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H53" s="7">
         <v>28</v>
@@ -3761,13 +3764,13 @@
         <v>14767</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M53" s="7">
         <v>37</v>
@@ -3776,13 +3779,13 @@
         <v>21272</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3815,13 @@
         <v>2374</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -3827,13 +3830,13 @@
         <v>2374</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3851,13 @@
         <v>2786</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H55" s="7">
         <v>18</v>
@@ -3863,13 +3866,13 @@
         <v>13753</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M55" s="7">
         <v>22</v>
@@ -3878,13 +3881,13 @@
         <v>16539</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3902,13 @@
         <v>4181</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
@@ -3914,13 +3917,13 @@
         <v>10506</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M56" s="7">
         <v>25</v>
@@ -3929,13 +3932,13 @@
         <v>14686</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +3994,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A7373E-58BD-4275-84DA-6C71DD74B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A730C6F-314E-43A1-A3FE-8C83C6E6A71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{924FAFF8-93BD-4CD2-BE70-B2B6D4359775}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE4CB200-E7EF-461D-AFA6-8D8DE2DE874F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECC76E7-EDE3-4951-AF47-9EFE5AF98FA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D5026D-2D4A-4A94-9149-EE0ED4AFB6F5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A730C6F-314E-43A1-A3FE-8C83C6E6A71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F18F74-7F88-4B40-AA92-A9B8F5F185A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE4CB200-E7EF-461D-AFA6-8D8DE2DE874F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1836DA8E-3E01-47B2-A45A-946A25B3DE83}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="232">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -185,10 +185,10 @@
     <t>40,37%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>31,39%</t>
@@ -203,7 +203,7 @@
     <t>29,9%</t>
   </si>
   <si>
-    <t>73,64%</t>
+    <t>70,45%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -224,7 +224,7 @@
     <t>29,73%</t>
   </si>
   <si>
-    <t>74,65%</t>
+    <t>71,32%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -314,10 +314,10 @@
     <t>61,44%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>27,51%</t>
@@ -335,10 +335,10 @@
     <t>14,97%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>47,29%</t>
@@ -356,10 +356,10 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,10 +368,10 @@
     <t>53,02%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>64,22%</t>
@@ -386,16 +386,16 @@
     <t>59,25%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>71,28%</t>
+    <t>69,88%</t>
   </si>
   <si>
     <t>8,4%</t>
@@ -407,7 +407,7 @@
     <t>12,15%</t>
   </si>
   <si>
-    <t>40,42%</t>
+    <t>41,38%</t>
   </si>
   <si>
     <t>10,32%</t>
@@ -419,7 +419,7 @@
     <t>5,74%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>25,68%</t>
   </si>
   <si>
     <t>17,06%</t>
@@ -431,19 +431,19 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>43,24%</t>
+    <t>44,76%</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>73,07%</t>
+    <t>72,89%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>40,07%</t>
+    <t>39,93%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -536,28 +536,28 @@
     <t>8,67%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>29,08%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>17,36%</t>
+    <t>19,21%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>12,6%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>50,99%</t>
@@ -572,19 +572,19 @@
     <t>57,52%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>16,51%</t>
@@ -596,142 +596,139 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>52,52%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1146,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D5026D-2D4A-4A94-9149-EE0ED4AFB6F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CE4966-BE01-494C-B254-491BBB1FAC53}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3612,10 +3609,10 @@
         <v>185</v>
       </c>
       <c r="K50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
@@ -3624,13 +3621,13 @@
         <v>6565</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3695,13 @@
         <v>2428</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -3713,13 +3710,13 @@
         <v>8876</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="L52" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M52" s="7">
         <v>21</v>
@@ -3731,10 +3728,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3746,13 @@
         <v>6506</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H53" s="7">
         <v>28</v>
@@ -3764,13 +3761,13 @@
         <v>14767</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M53" s="7">
         <v>37</v>
@@ -3779,13 +3776,13 @@
         <v>21272</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3812,13 @@
         <v>2374</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -3830,13 +3827,13 @@
         <v>2374</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3848,13 @@
         <v>2786</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H55" s="7">
         <v>18</v>
@@ -3866,13 +3863,13 @@
         <v>13753</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M55" s="7">
         <v>22</v>
@@ -3881,13 +3878,13 @@
         <v>16539</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,13 +3899,13 @@
         <v>4181</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
@@ -3917,13 +3914,13 @@
         <v>10506</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M56" s="7">
         <v>25</v>
@@ -3932,13 +3929,13 @@
         <v>14686</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,7 +3991,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F18F74-7F88-4B40-AA92-A9B8F5F185A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BCB2C78-5BAB-4A51-A9A6-363364071A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1836DA8E-3E01-47B2-A45A-946A25B3DE83}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9148E265-81D4-4F1E-A602-C4C43A990D02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="229">
   <si>
     <t>Población según si necesita  enema o supositorio y es capaz de utilizarlos en 2023 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -98,22 +98,22 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,22 +125,22 @@
     <t>100%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -149,61 +149,61 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -215,76 +215,73 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -296,439 +293,433 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>53,02%</t>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CE4966-BE01-494C-B254-491BBB1FAC53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23900BB0-4F33-4373-AB7B-2DAAFAE0F28C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>2715</v>
+        <v>2243</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1566,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2715</v>
+        <v>2243</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1587,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>939</v>
+        <v>865</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1602,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2862</v>
+        <v>2533</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1617,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>3801</v>
+        <v>3399</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1704,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>37</v>
@@ -1719,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>39</v>
@@ -1755,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1095</v>
+        <v>1011</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>41</v>
@@ -1770,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1095</v>
+        <v>1011</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>43</v>
@@ -1791,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>939</v>
+        <v>865</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -1806,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="7">
-        <v>7344</v>
+        <v>6383</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1821,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="N15" s="7">
-        <v>8282</v>
+        <v>7249</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -1844,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>46</v>
@@ -1859,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1021</v>
+        <v>920</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>47</v>
@@ -1874,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1687</v>
+        <v>1552</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>48</v>
@@ -1895,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>51</v>
@@ -1910,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>52</v>
@@ -1925,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>1250</v>
+        <v>1138</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>54</v>
@@ -2048,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>59</v>
@@ -2063,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>60</v>
@@ -2078,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>1243</v>
+        <v>1151</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>61</v>
@@ -2099,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>1968</v>
+        <v>1835</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2114,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>2212</v>
+        <v>2006</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2129,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="N21" s="7">
-        <v>4180</v>
+        <v>3841</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2167,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -2182,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>66</v>
@@ -2203,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>846</v>
+        <v>754</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>26</v>
@@ -2218,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="7">
-        <v>1314</v>
+        <v>1244</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>68</v>
@@ -2233,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>2161</v>
+        <v>1998</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>71</v>
@@ -2320,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>75</v>
@@ -2335,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>77</v>
@@ -2371,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>79</v>
@@ -2386,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>846</v>
+        <v>754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -2422,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>2738</v>
+        <v>2554</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -2437,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="N27" s="7">
-        <v>3585</v>
+        <v>3308</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -2451,7 +2442,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2484,7 +2475,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2499,7 +2490,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,46 +2502,46 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>5479</v>
+        <v>4888</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>6009</v>
+        <v>5364</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2601,7 +2592,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,46 +2604,46 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>578</v>
+        <v>503</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>887</v>
+        <v>788</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>1465</v>
+        <v>1292</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>993</v>
+        <v>924</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>17</v>
@@ -2679,31 +2670,31 @@
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1314</v>
+        <v>1172</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2307</v>
+        <v>2096</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,7 +2706,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="7">
-        <v>2100</v>
+        <v>1903</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>28</v>
@@ -2730,7 +2721,7 @@
         <v>18</v>
       </c>
       <c r="I33" s="7">
-        <v>7680</v>
+        <v>6848</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>28</v>
@@ -2745,7 +2736,7 @@
         <v>22</v>
       </c>
       <c r="N33" s="7">
-        <v>9780</v>
+        <v>8751</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>28</v>
@@ -2759,7 +2750,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2768,46 +2759,46 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>1761</v>
+        <v>1673</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
       </c>
       <c r="I34" s="7">
-        <v>2674</v>
+        <v>2503</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>11</v>
+      </c>
+      <c r="N34" s="7">
+        <v>4176</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M34" s="7">
-        <v>11</v>
-      </c>
-      <c r="N34" s="7">
-        <v>4435</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,46 +2810,46 @@
         <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>909</v>
+        <v>847</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,31 +2876,31 @@
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,31 +2927,31 @@
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>710</v>
+        <v>611</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,16 +2963,16 @@
         <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>1001</v>
+        <v>947</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3002,16 +2993,16 @@
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1001</v>
+        <v>947</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="7">
-        <v>3322</v>
+        <v>3139</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>28</v>
@@ -3038,7 +3029,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="7">
-        <v>4164</v>
+        <v>3837</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>28</v>
@@ -3053,7 +3044,7 @@
         <v>17</v>
       </c>
       <c r="N39" s="7">
-        <v>7486</v>
+        <v>6977</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>28</v>
@@ -3067,7 +3058,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3091,31 +3082,31 @@
         <v>3</v>
       </c>
       <c r="I40" s="7">
-        <v>1992</v>
+        <v>1791</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
       </c>
       <c r="N40" s="7">
-        <v>1992</v>
+        <v>1791</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +3118,10 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>1606</v>
+        <v>1554</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -3142,31 +3133,31 @@
         <v>4</v>
       </c>
       <c r="I41" s="7">
-        <v>2465</v>
+        <v>2288</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M41" s="7">
         <v>6</v>
       </c>
       <c r="N41" s="7">
-        <v>4072</v>
+        <v>3841</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,31 +3184,31 @@
         <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>1307</v>
+        <v>1032</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>1307</v>
+        <v>1032</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
@@ -3295,31 +3286,31 @@
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>1184</v>
+        <v>1105</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
       </c>
       <c r="N44" s="7">
-        <v>1971</v>
+        <v>1851</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3322,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="7">
-        <v>2394</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>28</v>
@@ -3346,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="7">
-        <v>6949</v>
+        <v>6216</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>28</v>
@@ -3361,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="N45" s="7">
-        <v>9343</v>
+        <v>8516</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>28</v>
@@ -3375,7 +3366,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3408,7 +3399,7 @@
         <v>18</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3423,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,46 +3426,46 @@
         <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>1408</v>
+        <v>1223</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
       </c>
       <c r="I47" s="7">
-        <v>1664</v>
+        <v>1309</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>3072</v>
+        <v>2532</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,31 +3492,31 @@
         <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>637</v>
+        <v>536</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>637</v>
+        <v>536</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,46 +3528,46 @@
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>2208</v>
+        <v>1848</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H49" s="7">
         <v>13</v>
       </c>
       <c r="I49" s="7">
-        <v>11038</v>
+        <v>8002</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M49" s="7">
         <v>16</v>
       </c>
       <c r="N49" s="7">
-        <v>13246</v>
+        <v>9850</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,46 +3579,46 @@
         <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>715</v>
+        <v>615</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H50" s="7">
         <v>9</v>
       </c>
       <c r="I50" s="7">
-        <v>5849</v>
+        <v>4859</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M50" s="7">
         <v>10</v>
       </c>
       <c r="N50" s="7">
-        <v>6565</v>
+        <v>5474</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,7 +3630,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="7">
-        <v>4331</v>
+        <v>3686</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>28</v>
@@ -3654,7 +3645,7 @@
         <v>25</v>
       </c>
       <c r="I51" s="7">
-        <v>19188</v>
+        <v>14706</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>28</v>
@@ -3669,7 +3660,7 @@
         <v>31</v>
       </c>
       <c r="N51" s="7">
-        <v>23519</v>
+        <v>18392</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>28</v>
@@ -3692,46 +3683,46 @@
         <v>5</v>
       </c>
       <c r="D52" s="7">
-        <v>2428</v>
+        <v>2306</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
       </c>
       <c r="I52" s="7">
-        <v>8876</v>
+        <v>7893</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M52" s="7">
         <v>21</v>
       </c>
       <c r="N52" s="7">
-        <v>11303</v>
+        <v>10198</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,46 +3734,46 @@
         <v>9</v>
       </c>
       <c r="D53" s="7">
-        <v>6506</v>
+        <v>5958</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="H53" s="7">
+        <v>28</v>
+      </c>
+      <c r="I53" s="7">
+        <v>13161</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H53" s="7">
-        <v>28</v>
-      </c>
-      <c r="I53" s="7">
-        <v>14767</v>
-      </c>
-      <c r="J53" s="7" t="s">
+      <c r="K53" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M53" s="7">
         <v>37</v>
       </c>
       <c r="N53" s="7">
-        <v>21272</v>
+        <v>19119</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,37 +3794,37 @@
         <v>18</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
       </c>
       <c r="I54" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
       </c>
       <c r="N54" s="7">
-        <v>2374</v>
+        <v>1964</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,46 +3836,46 @@
         <v>4</v>
       </c>
       <c r="D55" s="7">
-        <v>2786</v>
+        <v>2351</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H55" s="7">
         <v>18</v>
       </c>
       <c r="I55" s="7">
-        <v>13753</v>
+        <v>10411</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M55" s="7">
         <v>22</v>
       </c>
       <c r="N55" s="7">
-        <v>16539</v>
+        <v>12762</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P55" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="Q55" s="7" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,46 +3887,46 @@
         <v>7</v>
       </c>
       <c r="D56" s="7">
-        <v>4181</v>
+        <v>3868</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
       </c>
       <c r="I56" s="7">
-        <v>10506</v>
+        <v>9123</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M56" s="7">
         <v>25</v>
       </c>
       <c r="N56" s="7">
-        <v>14686</v>
+        <v>12991</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,7 +3938,7 @@
         <v>25</v>
       </c>
       <c r="D57" s="7">
-        <v>15900</v>
+        <v>14483</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>28</v>
@@ -3962,7 +3953,7 @@
         <v>83</v>
       </c>
       <c r="I57" s="7">
-        <v>50275</v>
+        <v>42551</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>28</v>
@@ -3977,7 +3968,7 @@
         <v>108</v>
       </c>
       <c r="N57" s="7">
-        <v>66174</v>
+        <v>57033</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>28</v>
@@ -3991,7 +3982,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
